--- a/FS_thesis_BPS/FS_errors.xlsx
+++ b/FS_thesis_BPS/FS_errors.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634350.1688459084</v>
+        <v>995618.8601498967</v>
       </c>
       <c r="C2" t="n">
-        <v>34250.87023114278</v>
+        <v>61354.54598056434</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369962.7798355349</v>
+        <v>515260.7276278729</v>
       </c>
       <c r="C3" t="n">
-        <v>23522.11129502879</v>
+        <v>61354.54598056434</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>248717.2554480637</v>
+        <v>320071.2597331816</v>
       </c>
       <c r="C4" t="n">
-        <v>34250.87023114278</v>
+        <v>42139.2552890066</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99844.13769688137</v>
+        <v>210833.5543273592</v>
       </c>
       <c r="C5" t="n">
-        <v>26697.15363932265</v>
+        <v>42139.2552890066</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55089.53646333038</v>
+        <v>150656.9757443959</v>
       </c>
       <c r="C6" t="n">
-        <v>24859.06748836609</v>
+        <v>42139.2552890066</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46271.0519240111</v>
+        <v>107715.6238173954</v>
       </c>
       <c r="C7" t="n">
-        <v>25141.04964259245</v>
+        <v>44260.27809068429</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54279.3591067771</v>
+        <v>88064.06836449282</v>
       </c>
       <c r="C8" t="n">
-        <v>25141.04964259245</v>
+        <v>42251.41380406159</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>46065.62087957065</v>
+        <v>84319.26017831972</v>
       </c>
       <c r="C9" t="n">
-        <v>8251.072493768937</v>
+        <v>48844.82152152419</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46704.98233256496</v>
+        <v>79648.7828545571</v>
       </c>
       <c r="C10" t="n">
-        <v>25141.04964259245</v>
+        <v>41811.85909840682</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52163.66865086934</v>
+        <v>69086.08715108788</v>
       </c>
       <c r="C11" t="n">
-        <v>25141.04964259245</v>
+        <v>41811.85909840682</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>72127.22754268473</v>
+        <v>75837.6307985358</v>
       </c>
       <c r="C12" t="n">
-        <v>25141.04964259245</v>
+        <v>41811.85909840682</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47333.96186485751</v>
+        <v>74369.97082937368</v>
       </c>
       <c r="C13" t="n">
-        <v>21261.26232221171</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41395.94272569815</v>
+        <v>66414.48470290873</v>
       </c>
       <c r="C14" t="n">
-        <v>13102.14917859026</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57504.04931653564</v>
+        <v>64826.18311801473</v>
       </c>
       <c r="C15" t="n">
-        <v>13102.14917859026</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>53689.53672520141</v>
+        <v>72735.32619288626</v>
       </c>
       <c r="C16" t="n">
-        <v>13102.14917859026</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>61282.31485117021</v>
+        <v>64412.8942980627</v>
       </c>
       <c r="C17" t="n">
-        <v>22572.96756899203</v>
+        <v>37579.2200134087</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55184.24053146357</v>
+        <v>59864.39898390236</v>
       </c>
       <c r="C18" t="n">
-        <v>17810.01169621705</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37664.882784888</v>
+        <v>64809.4527799048</v>
       </c>
       <c r="C19" t="n">
-        <v>20455.41242906909</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45819.09387739456</v>
+        <v>67812.26166860352</v>
       </c>
       <c r="C20" t="n">
-        <v>20455.41242906909</v>
+        <v>39591.65548280146</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40318.59954380993</v>
+        <v>63441.46508411197</v>
       </c>
       <c r="C21" t="n">
-        <v>21315.49669263477</v>
+        <v>36852.7428720292</v>
       </c>
     </row>
   </sheetData>
